--- a/Баллы 2015.xlsx
+++ b/Баллы 2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Варианты</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>Зачетное занятие!!!</t>
+  </si>
+  <si>
+    <t>Блохина Ксения</t>
+  </si>
+  <si>
+    <t>Борисенко Яков</t>
+  </si>
+  <si>
+    <t>Копылов Степан</t>
+  </si>
+  <si>
+    <t>Лобова Арина</t>
+  </si>
+  <si>
+    <t>Тимофеев Александр</t>
+  </si>
+  <si>
+    <t>Тимофеева Марина</t>
+  </si>
+  <si>
+    <t>Сторожев Илья</t>
+  </si>
+  <si>
+    <t>Федоров Сергей</t>
   </si>
 </sst>
 </file>
@@ -576,42 +600,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,12 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,33 +628,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,76 +652,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,6 +681,147 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1109,10 +1141,10 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1158,7 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="12" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" customWidth="1"/>
     <col min="12" max="12" width="38.7109375" customWidth="1"/>
     <col min="13" max="13" width="35.85546875" customWidth="1"/>
@@ -1147,485 +1179,501 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40">
+      <c r="C1" s="19">
         <v>41897</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="40">
+      <c r="E1" s="19">
         <v>41904</v>
       </c>
-      <c r="F1" s="40">
+      <c r="F1" s="19">
         <v>41911</v>
       </c>
-      <c r="G1" s="40">
+      <c r="G1" s="19">
         <v>41918</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40">
+      <c r="I1" s="19">
         <v>41925</v>
       </c>
-      <c r="J1" s="40">
+      <c r="J1" s="19">
         <v>41932</v>
       </c>
-      <c r="K1" s="40">
+      <c r="K1" s="19">
         <v>41939</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="40">
+      <c r="M1" s="19">
         <v>41946</v>
       </c>
-      <c r="N1" s="40">
+      <c r="N1" s="19">
         <v>41953</v>
       </c>
-      <c r="O1" s="40">
+      <c r="O1" s="19">
         <v>41960</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="40">
+      <c r="Q1" s="19">
         <v>41967</v>
       </c>
-      <c r="R1" s="40">
+      <c r="R1" s="19">
         <v>41974</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="40">
+      <c r="T1" s="19">
         <v>41981</v>
       </c>
-      <c r="U1" s="40">
+      <c r="U1" s="19">
         <v>41988</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="40">
+      <c r="W1" s="19">
         <v>41995</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="40">
+      <c r="Y1" s="19">
         <v>42002</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="Z1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="55">
+    <row r="2" spans="1:29" s="46" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="42">
         <f t="shared" ref="Z2:Z9" si="0">SUM(C2:Y2)</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="33">
+      <c r="AA2" s="43">
         <v>85</v>
       </c>
-      <c r="AB2" s="56" t="str">
+      <c r="AB2" s="44" t="str">
         <f>IF(Z2&gt;=50,"удовл",IF(Z2&gt;=73,"хорошо",IF(Z2&gt;=87,"отл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AC2" s="34" t="str">
+      <c r="AC2" s="45" t="str">
         <f xml:space="preserve"> IF(Z2&gt;=AA2,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7">
+    <row r="3" spans="1:29" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="30">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA3" s="35">
+      <c r="AA3" s="55">
         <v>85</v>
       </c>
-      <c r="AB3" s="45" t="str">
+      <c r="AB3" s="56" t="str">
         <f t="shared" ref="AB3:AB9" si="1">IF(Z3&gt;=50,"удовл",IF(Z3&gt;=73,"хорошо",IF(Z3&gt;=87,"отл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AC3" s="36" t="str">
+      <c r="AC3" s="57" t="str">
         <f xml:space="preserve"> IF(Z3&gt;=AA3,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7">
+    <row r="4" spans="1:29" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="30">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA4" s="35">
+      <c r="AA4" s="55">
         <v>85</v>
       </c>
-      <c r="AB4" s="45" t="str">
+      <c r="AB4" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC4" s="36" t="str">
+      <c r="AC4" s="57" t="str">
         <f t="shared" ref="AC4:AC9" si="2" xml:space="preserve"> IF(Z4&gt;=AA4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7">
+    <row r="5" spans="1:29" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="30">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AA5" s="55">
         <v>85</v>
       </c>
-      <c r="AB5" s="45" t="str">
+      <c r="AB5" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC5" s="36" t="str">
+      <c r="AC5" s="57" t="str">
         <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="12">
+    <row r="6" spans="1:29" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="59">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="30">
+      <c r="D6" s="48"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA6" s="35">
+      <c r="AA6" s="55">
         <v>85</v>
       </c>
-      <c r="AB6" s="45" t="str">
+      <c r="AB6" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC6" s="36" t="str">
+      <c r="AC6" s="57" t="str">
         <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="12">
+    <row r="7" spans="1:29" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="59">
         <v>1</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="30">
+      <c r="D7" s="48"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA7" s="35">
+      <c r="AA7" s="55">
         <v>85</v>
       </c>
-      <c r="AB7" s="45" t="str">
+      <c r="AB7" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC7" s="36" t="str">
+      <c r="AC7" s="57" t="str">
         <f xml:space="preserve"> IF(Z7&gt;=AA7,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="12">
+    <row r="8" spans="1:29" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="59">
         <v>1</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="30">
+      <c r="D8" s="48"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA8" s="35">
+      <c r="AA8" s="55">
         <v>85</v>
       </c>
-      <c r="AB8" s="45" t="str">
+      <c r="AB8" s="56" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC8" s="36" t="str">
+      <c r="AC8" s="57" t="str">
         <f xml:space="preserve"> IF(Z8&gt;=AA8,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="69">
+    <row r="9" spans="1:29" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="37">
+      <c r="AA9" s="75">
         <v>85</v>
       </c>
-      <c r="AB9" s="70" t="str">
+      <c r="AB9" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC9" s="38" t="str">
+      <c r="AC9" s="77" t="str">
         <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="75" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="75" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="78" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="72" t="s">
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="72" t="s">
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="73"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="71" t="s">
+      <c r="U10" s="26"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -1637,7 +1685,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="22"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1666,7 +1714,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1695,7 +1743,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="23"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1724,7 +1772,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1753,7 +1801,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1782,7 +1830,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="23"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1811,7 +1859,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="23"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1840,7 +1888,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1869,7 +1917,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="23"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1898,7 +1946,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="23"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1927,7 +1975,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="23"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1956,7 +2004,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="23"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1985,7 +2033,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="23"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
